--- a/i360db/0.9.7/i360db.xlsx
+++ b/i360db/0.9.7/i360db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Files\My Programs\موسوعات إسلامية_عربية\_Sprints\AppGyver\_db\i360db\0.9.7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7085D8B4-5E9A-4CA0-9C39-407D6D22A72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B174D52-AC0C-4890-9E65-C89DCD5C5D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="319">
   <si>
     <t>AppleAppStore</t>
   </si>
@@ -994,6 +994,9 @@
   </si>
   <si>
     <t>0.9.7</t>
+  </si>
+  <si>
+    <t>https://ar.wikipedia.org/wiki/ماتريدية</t>
   </si>
 </sst>
 </file>
@@ -1505,7 +1508,7 @@
   <dimension ref="A1:N69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -4274,7 +4277,9 @@
       <c r="M64" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="N64" s="3"/>
+      <c r="N64" s="3" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="11">
@@ -4479,10 +4484,11 @@
     <hyperlink ref="K7" r:id="rId11" xr:uid="{972C7AFD-C4CC-41D1-8402-D2B941DF27A6}"/>
     <hyperlink ref="L7" r:id="rId12" xr:uid="{CD4221CB-313E-4D4C-AEEF-A0614FC1D120}"/>
     <hyperlink ref="M7" r:id="rId13" xr:uid="{4B18BAC0-A0ED-4C3C-BB0E-AAEF6E78F4D3}"/>
+    <hyperlink ref="N64" r:id="rId14" xr:uid="{89D6749C-46F1-42F2-8794-B0B0DA424F75}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>
-  <pageSetup paperSize="8" scale="65" orientation="landscape" r:id="rId14"/>
+  <pageSetup paperSize="8" scale="65" orientation="landscape" r:id="rId15"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;F - &amp;A&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>

--- a/i360db/0.9.7/i360db.xlsx
+++ b/i360db/0.9.7/i360db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Files\My Programs\موسوعات إسلامية_عربية\_Sprints\AppGyver\_db\i360db\0.9.7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B174D52-AC0C-4890-9E65-C89DCD5C5D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C93074-DD5A-4377-98F7-5850EEAA2845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Complements!$A$1:$G$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sciences!$A$1:$N$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sciences!$A$1:$N$67</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Complements!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sciences!$1:$1</definedName>
   </definedNames>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="315">
   <si>
     <t>AppleAppStore</t>
   </si>
@@ -642,9 +642,6 @@
     <t>QuranReadings</t>
   </si>
   <si>
-    <t>«مصاحف التيسير» بالقراءات العشر</t>
-  </si>
-  <si>
     <t>QuranInterpretation</t>
   </si>
   <si>
@@ -828,18 +825,9 @@
     <t>https://i360-e.web.app/</t>
   </si>
   <si>
-    <t>lightbulb-o</t>
-  </si>
-  <si>
     <t>https://ar.wikipedia.org/wiki/أشعرية</t>
   </si>
   <si>
-    <t>Ash'ari | Maturidi</t>
-  </si>
-  <si>
-    <t>أشعرية | ماتريدية</t>
-  </si>
-  <si>
     <t>https://ketabonline.com/books/491</t>
   </si>
   <si>
@@ -996,7 +984,7 @@
     <t>0.9.7</t>
   </si>
   <si>
-    <t>https://ar.wikipedia.org/wiki/ماتريدية</t>
+    <t>المصاحف بالقراءات العشر</t>
   </si>
 </sst>
 </file>
@@ -1505,7 +1493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N69"/>
+  <dimension ref="A1:N68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -1529,7 +1517,7 @@
         <v>93</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>86</v>
@@ -1565,7 +1553,7 @@
         <v>3</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1580,13 +1568,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F2" s="9">
-        <v>1.1299999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>27</v>
@@ -1623,19 +1611,19 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F3" s="9">
         <v>1.01</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>4</v>
@@ -1656,7 +1644,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="12">
         <f t="shared" si="0"/>
@@ -1666,42 +1654,42 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F4" s="9">
         <v>1.1100000000000001</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="12">
         <f t="shared" si="0"/>
@@ -1711,22 +1699,22 @@
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F5" s="9">
         <v>9.02</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>83</v>
@@ -1738,13 +1726,13 @@
         <v>85</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="12">
         <f t="shared" si="0"/>
@@ -1787,7 +1775,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="12">
         <f t="shared" si="0"/>
@@ -1815,22 +1803,24 @@
         <v>15</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="N7" s="3"/>
+        <v>312</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="12">
         <f t="shared" si="0"/>
@@ -1840,10 +1830,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F8" s="9">
         <v>2.0699999999999998</v>
@@ -1873,7 +1863,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="12">
         <f t="shared" si="0"/>
@@ -1883,16 +1873,16 @@
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F9" s="9">
         <v>2.0099999999999998</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>94</v>
@@ -1916,7 +1906,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="12">
         <f t="shared" si="0"/>
@@ -1926,40 +1916,40 @@
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F10" s="9">
         <v>8.0299999999999994</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>195</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="12">
         <f t="shared" si="0"/>
@@ -1969,10 +1959,10 @@
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="F11" s="9">
         <v>7.03</v>
@@ -2002,7 +1992,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="12">
         <f t="shared" si="0"/>
@@ -2012,10 +2002,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F12" s="9">
         <v>8.07</v>
@@ -2045,7 +2035,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="12">
         <f t="shared" si="0"/>
@@ -2055,40 +2045,40 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F13" s="9">
         <v>8.08</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>225</v>
-      </c>
       <c r="M13" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="12">
         <f t="shared" si="0"/>
@@ -2098,10 +2088,10 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F14" s="9">
         <v>8.09</v>
@@ -2113,7 +2103,7 @@
         <v>190</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>189</v>
@@ -2131,7 +2121,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="12">
         <f t="shared" si="0"/>
@@ -2141,10 +2131,10 @@
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="F15" s="9">
         <v>7.07</v>
@@ -2174,7 +2164,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="12">
         <f t="shared" si="0"/>
@@ -2184,40 +2174,40 @@
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F16" s="9">
         <v>8.0399999999999991</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="12">
         <f t="shared" si="0"/>
@@ -2227,40 +2217,40 @@
         <v>7</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="F17" s="9">
         <v>7.06</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="12">
         <f t="shared" si="0"/>
@@ -2270,10 +2260,10 @@
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F18" s="9">
         <v>8.0500000000000007</v>
@@ -2282,7 +2272,7 @@
         <v>82</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>77</v>
@@ -2303,7 +2293,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="12">
         <f t="shared" si="0"/>
@@ -2313,10 +2303,10 @@
         <v>7</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="F19" s="9">
         <v>7.05</v>
@@ -2325,7 +2315,7 @@
         <v>99</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>15</v>
@@ -2346,7 +2336,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="12">
         <f t="shared" si="0"/>
@@ -2356,10 +2346,10 @@
         <v>7</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="F20" s="9">
         <v>7.02</v>
@@ -2383,13 +2373,13 @@
         <v>54</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="12">
         <f t="shared" si="0"/>
@@ -2408,10 +2398,10 @@
         <v>4.01</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>4</v>
@@ -2420,19 +2410,19 @@
         <v>32</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="12">
         <f t="shared" si="0"/>
@@ -2442,10 +2432,10 @@
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F22" s="9">
         <v>5.01</v>
@@ -2475,7 +2465,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="12">
         <f t="shared" si="0"/>
@@ -2497,28 +2487,28 @@
         <v>76</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N23" s="3"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="12">
         <f t="shared" si="0"/>
@@ -2561,7 +2551,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="12">
         <f t="shared" si="0"/>
@@ -2571,10 +2561,10 @@
         <v>7</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="F25" s="9">
         <v>7.01</v>
@@ -2598,13 +2588,13 @@
         <v>48</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="12">
         <f t="shared" si="0"/>
@@ -2614,19 +2604,19 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F26" s="9">
         <v>1.02</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>4</v>
@@ -2647,7 +2637,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="12">
         <f t="shared" si="0"/>
@@ -2657,10 +2647,10 @@
         <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F27" s="9">
         <v>2.0499999999999998</v>
@@ -2672,7 +2662,7 @@
         <v>21</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>19</v>
@@ -2690,7 +2680,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="12">
         <f t="shared" si="0"/>
@@ -2709,31 +2699,31 @@
         <v>4.05</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>107</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="12">
         <f t="shared" si="0"/>
@@ -2758,7 +2748,7 @@
         <v>164</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>131</v>
@@ -2776,7 +2766,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="12">
         <f t="shared" si="0"/>
@@ -2819,7 +2809,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="12">
         <f t="shared" si="0"/>
@@ -2829,10 +2819,10 @@
         <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F31" s="9">
         <v>5.0199999999999996</v>
@@ -2847,22 +2837,22 @@
         <v>15</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="12">
         <f t="shared" si="0"/>
@@ -2887,7 +2877,7 @@
         <v>152</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>113</v>
@@ -2905,10 +2895,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="12">
-        <f t="shared" ref="B33:B64" si="1">IF(OR(NOT(ISERROR(SEARCH("archive.org",N33))),NOT(ISERROR(SEARCH("app.box.com",N33))),NOT(ISERROR(SEARCH("islamway.net",N33))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N33))),NOT(ISERROR(SEARCH("tanzil.net",N33))),NOT(ISERROR(SEARCH("alsirah.com",N33))),NOT(ISERROR(SEARCH("i36",N33))),(RIGHT(N33,4)=".pdf"),C33=6,C33=8,C33=9),0,1)</f>
+        <f t="shared" ref="B33:B62" si="1">IF(OR(NOT(ISERROR(SEARCH("archive.org",N33))),NOT(ISERROR(SEARCH("app.box.com",N33))),NOT(ISERROR(SEARCH("islamway.net",N33))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N33))),NOT(ISERROR(SEARCH("tanzil.net",N33))),NOT(ISERROR(SEARCH("alsirah.com",N33))),NOT(ISERROR(SEARCH("i36",N33))),(RIGHT(N33,4)=".pdf"),C33=6,C33=8,C33=9),0,1)</f>
         <v>0</v>
       </c>
       <c r="C33" s="7">
@@ -2930,7 +2920,7 @@
         <v>179</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>142</v>
@@ -2948,7 +2938,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="12">
         <f t="shared" si="1"/>
@@ -2991,7 +2981,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="12">
         <f t="shared" si="1"/>
@@ -3016,7 +3006,7 @@
         <v>162</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>163</v>
@@ -3034,7 +3024,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="12">
         <f t="shared" si="1"/>
@@ -3077,7 +3067,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="12">
         <f t="shared" si="1"/>
@@ -3102,7 +3092,7 @@
         <v>144</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>117</v>
@@ -3120,7 +3110,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="12">
         <f t="shared" si="1"/>
@@ -3163,7 +3153,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="12">
         <f t="shared" si="1"/>
@@ -3188,7 +3178,7 @@
         <v>157</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>127</v>
@@ -3206,7 +3196,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="12">
         <f t="shared" si="1"/>
@@ -3231,7 +3221,7 @@
         <v>151</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>118</v>
@@ -3249,7 +3239,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="12">
         <f t="shared" si="1"/>
@@ -3274,7 +3264,7 @@
         <v>155</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>126</v>
@@ -3292,7 +3282,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="12">
         <f t="shared" si="1"/>
@@ -3335,7 +3325,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="12">
         <f t="shared" si="1"/>
@@ -3378,7 +3368,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="12">
         <f t="shared" si="1"/>
@@ -3403,7 +3393,7 @@
         <v>161</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J44" s="8" t="s">
         <v>124</v>
@@ -3421,7 +3411,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="12">
         <f t="shared" si="1"/>
@@ -3464,7 +3454,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="12">
         <f t="shared" si="1"/>
@@ -3507,7 +3497,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="12">
         <f t="shared" si="1"/>
@@ -3550,7 +3540,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="12">
         <f t="shared" si="1"/>
@@ -3575,7 +3565,7 @@
         <v>177</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>141</v>
@@ -3593,7 +3583,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" s="12">
         <f t="shared" si="1"/>
@@ -3618,7 +3608,7 @@
         <v>147</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J49" s="8" t="s">
         <v>122</v>
@@ -3636,7 +3626,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" s="12">
         <f t="shared" si="1"/>
@@ -3646,16 +3636,16 @@
         <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F50" s="9">
         <v>8.02</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>91</v>
@@ -3679,7 +3669,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" s="12">
         <f t="shared" si="1"/>
@@ -3689,10 +3679,10 @@
         <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F51" s="9">
         <v>8.01</v>
@@ -3704,7 +3694,7 @@
         <v>90</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>60</v>
@@ -3722,7 +3712,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" s="12">
         <f t="shared" si="1"/>
@@ -3741,31 +3731,31 @@
         <v>4.03</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J52" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="M52" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="N52" s="3"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" s="12">
         <f t="shared" si="1"/>
@@ -3784,31 +3774,31 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N53" s="3"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" s="12">
         <f t="shared" si="1"/>
@@ -3836,22 +3826,22 @@
         <v>107</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N54" s="3"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" s="12">
         <f t="shared" si="1"/>
@@ -3861,10 +3851,10 @@
         <v>5</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F55" s="9">
         <v>5.03</v>
@@ -3879,22 +3869,22 @@
         <v>107</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="N55" s="3"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" s="12">
         <f t="shared" si="1"/>
@@ -3904,10 +3894,10 @@
         <v>7</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E56" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="F56" s="9">
         <v>7.04</v>
@@ -3916,7 +3906,7 @@
         <v>43</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>15</v>
@@ -3937,7 +3927,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" s="12">
         <f t="shared" si="1"/>
@@ -3947,10 +3937,10 @@
         <v>8</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F57" s="9">
         <v>8.06</v>
@@ -3959,7 +3949,7 @@
         <v>68</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>198</v>
@@ -3980,7 +3970,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" s="12">
         <f t="shared" si="1"/>
@@ -4023,7 +4013,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" s="12">
         <f t="shared" si="1"/>
@@ -4033,40 +4023,40 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F59" s="9">
         <v>9.0399999999999991</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N59" s="3"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" s="12">
         <f t="shared" si="1"/>
@@ -4076,40 +4066,40 @@
         <v>2</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F60" s="9">
         <v>2.0299999999999998</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N60" s="3"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" s="12">
         <f t="shared" si="1"/>
@@ -4119,40 +4109,40 @@
         <v>2</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F61" s="9">
         <v>2.02</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N61" s="3"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" s="12">
         <f t="shared" si="1"/>
@@ -4162,10 +4152,10 @@
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F62" s="9">
         <v>1.03</v>
@@ -4174,7 +4164,7 @@
         <v>199</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>200</v>
+        <v>314</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>4</v>
@@ -4195,7 +4185,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" s="12">
         <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",N63))),NOT(ISERROR(SEARCH("app.box.com",N63))),NOT(ISERROR(SEARCH("islamway.net",N63))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N63))),NOT(ISERROR(SEARCH("tanzil.net",N63))),NOT(ISERROR(SEARCH("alsirah.com",N63))),NOT(ISERROR(SEARCH("i36",N63))),(RIGHT(N63,4)=".pdf"),C63=6,C63=8,C63=9),0,1)</f>
@@ -4205,85 +4195,83 @@
         <v>2</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F63" s="9">
         <v>2.06</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="N63" s="3"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",N64))),NOT(ISERROR(SEARCH("app.box.com",N64))),NOT(ISERROR(SEARCH("islamway.net",N64))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N64))),NOT(ISERROR(SEARCH("tanzil.net",N64))),NOT(ISERROR(SEARCH("alsirah.com",N64))),NOT(ISERROR(SEARCH("i36",N64))),(RIGHT(N64,4)=".pdf"),C64=6,C64=8,C64=9),0,1)</f>
+        <v>0</v>
       </c>
       <c r="C64" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>29</v>
+        <v>266</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>22</v>
+        <v>229</v>
       </c>
       <c r="F64" s="9">
-        <v>3.02</v>
+        <v>9.01</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="N64" s="3" t="s">
-        <v>318</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="N64" s="3"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" s="12">
         <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",N65))),NOT(ISERROR(SEARCH("app.box.com",N65))),NOT(ISERROR(SEARCH("islamway.net",N65))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N65))),NOT(ISERROR(SEARCH("tanzil.net",N65))),NOT(ISERROR(SEARCH("alsirah.com",N65))),NOT(ISERROR(SEARCH("i36",N65))),(RIGHT(N65,4)=".pdf"),C65=6,C65=8,C65=9),0,1)</f>
@@ -4293,178 +4281,135 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F65" s="9">
-        <v>9.01</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="G65" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H65" s="5" t="s">
         <v>272</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>273</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>274</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="N65" s="3"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" s="12">
         <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",N66))),NOT(ISERROR(SEARCH("app.box.com",N66))),NOT(ISERROR(SEARCH("islamway.net",N66))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N66))),NOT(ISERROR(SEARCH("tanzil.net",N66))),NOT(ISERROR(SEARCH("alsirah.com",N66))),NOT(ISERROR(SEARCH("i36",N66))),(RIGHT(N66,4)=".pdf"),C66=6,C66=8,C66=9),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="F66" s="9">
-        <v>9.0299999999999994</v>
+        <v>2.04</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>278</v>
+        <v>15</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="N66" s="3"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" s="12">
         <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",N67))),NOT(ISERROR(SEARCH("app.box.com",N67))),NOT(ISERROR(SEARCH("islamway.net",N67))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N67))),NOT(ISERROR(SEARCH("tanzil.net",N67))),NOT(ISERROR(SEARCH("alsirah.com",N67))),NOT(ISERROR(SEARCH("i36",N67))),(RIGHT(N67,4)=".pdf"),C67=6,C67=8,C67=9),0,1)</f>
         <v>1</v>
       </c>
       <c r="C67" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="F67" s="9">
-        <v>2.04</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>246</v>
+        <v>105</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>256</v>
+        <v>106</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>248</v>
+        <v>108</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>248</v>
+        <v>108</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>248</v>
+        <v>108</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>248</v>
+        <v>108</v>
       </c>
       <c r="N67" s="3"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" s="11">
-        <v>68</v>
-      </c>
-      <c r="B68" s="12">
-        <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",N68))),NOT(ISERROR(SEARCH("app.box.com",N68))),NOT(ISERROR(SEARCH("islamway.net",N68))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N68))),NOT(ISERROR(SEARCH("tanzil.net",N68))),NOT(ISERROR(SEARCH("alsirah.com",N68))),NOT(ISERROR(SEARCH("i36",N68))),(RIGHT(N68,4)=".pdf"),C68=6,C68=8,C68=9),0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="C68" s="7">
-        <v>1</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="F68" s="9">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="L68" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="M68" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="13">
-        <f>SUBTOTAL(2,A2:A68)</f>
-        <v>67</v>
-      </c>
-      <c r="B69" s="14">
-        <f>SUBTOTAL(9,B2:B68)</f>
-        <v>30</v>
+      <c r="A68" s="13">
+        <f>SUBTOTAL(2,A2:A67)</f>
+        <v>66</v>
+      </c>
+      <c r="B68" s="14">
+        <f>SUBTOTAL(9,B2:B67)</f>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N68" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:N67" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L56">
       <sortCondition ref="A1:A56"/>
     </sortState>
@@ -4484,11 +4429,10 @@
     <hyperlink ref="K7" r:id="rId11" xr:uid="{972C7AFD-C4CC-41D1-8402-D2B941DF27A6}"/>
     <hyperlink ref="L7" r:id="rId12" xr:uid="{CD4221CB-313E-4D4C-AEEF-A0614FC1D120}"/>
     <hyperlink ref="M7" r:id="rId13" xr:uid="{4B18BAC0-A0ED-4C3C-BB0E-AAEF6E78F4D3}"/>
-    <hyperlink ref="N64" r:id="rId14" xr:uid="{89D6749C-46F1-42F2-8794-B0B0DA424F75}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>
-  <pageSetup paperSize="8" scale="65" orientation="landscape" r:id="rId15"/>
+  <pageSetup paperSize="8" scale="65" orientation="landscape" r:id="rId14"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;F - &amp;A&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
@@ -4513,69 +4457,69 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F2" s="16">
         <f>DATEVALUE(MID(Sciences!$H59,(FIND("طبعة @ ",Sciences!$H59)+7),10))</f>
         <v>45073</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="18" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C6" s="18" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/i360db/0.9.7/i360db.xlsx
+++ b/i360db/0.9.7/i360db.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Files\My Programs\موسوعات إسلامية_عربية\_Sprints\AppGyver\_db\i360db\0.9.7\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C93074-DD5A-4377-98F7-5850EEAA2845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sciences" sheetId="1" r:id="rId1"/>
@@ -18,29 +12,16 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Complements!$A$1:$G$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sciences!$A$1:$N$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sciences!$A$1:$N$69</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Complements!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sciences!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="114210" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="323">
   <si>
     <t>AppleAppStore</t>
   </si>
@@ -975,9 +956,6 @@
     <t>WebErrata</t>
   </si>
   <si>
-    <t>طبعة @ 2023/05/27 م - 1444/11/07 هـ</t>
-  </si>
-  <si>
     <t>https://ar.wikisource.org/wiki/متن_العقيدة_الطحاوية</t>
   </si>
   <si>
@@ -985,18 +963,45 @@
   </si>
   <si>
     <t>المصاحف بالقراءات العشر</t>
+  </si>
+  <si>
+    <t>اللغة العربية و علومها</t>
+  </si>
+  <si>
+    <t>https://ar.wikipedia.org/wiki/بوابة:اللغة_العربية</t>
+  </si>
+  <si>
+    <t>https://dorar.net/arabia</t>
+  </si>
+  <si>
+    <t>«موسوعة اللغة العربية»</t>
+  </si>
+  <si>
+    <t>«بوابة: اللغة العربية»</t>
+  </si>
+  <si>
+    <t>ArabiaEncyclopedia</t>
+  </si>
+  <si>
+    <t>ArabiaSciences</t>
+  </si>
+  <si>
+    <t>ArabiaPortal</t>
+  </si>
+  <si>
+    <t>طبعة @ 2023/05/29 م - 1444/11/09 هـ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1161,14 +1166,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1215,7 +1212,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1247,27 +1244,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1299,24 +1278,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1492,8 +1453,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -1502,7 +1463,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
@@ -1512,7 +1473,7 @@
     <col min="10" max="14" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
@@ -1556,7 +1517,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1599,7 +1560,7 @@
       </c>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1642,7 +1603,7 @@
       </c>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1687,7 +1648,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1730,7 +1691,7 @@
       </c>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1773,7 +1734,7 @@
       </c>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1803,22 +1764,22 @@
         <v>15</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1861,7 +1822,7 @@
       </c>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1904,7 +1865,7 @@
       </c>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1947,7 +1908,7 @@
       </c>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1990,7 +1951,7 @@
       </c>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -2033,7 +1994,7 @@
       </c>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -2076,7 +2037,7 @@
       </c>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -2119,7 +2080,7 @@
       </c>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -2162,7 +2123,7 @@
       </c>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -2205,7 +2166,7 @@
       </c>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -2248,7 +2209,7 @@
       </c>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -2291,7 +2252,7 @@
       </c>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -2334,7 +2295,7 @@
       </c>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -2377,7 +2338,7 @@
       </c>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -2420,7 +2381,7 @@
       </c>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -2463,7 +2424,7 @@
       </c>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -2506,7 +2467,7 @@
       </c>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -2549,7 +2510,7 @@
       </c>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -2592,7 +2553,7 @@
       </c>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -2635,7 +2596,7 @@
       </c>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -2678,7 +2639,7 @@
       </c>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -2721,7 +2682,7 @@
       </c>
       <c r="N28" s="3"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -2764,7 +2725,7 @@
       </c>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -2807,7 +2768,7 @@
       </c>
       <c r="N30" s="8"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -2850,7 +2811,7 @@
       </c>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -2893,7 +2854,7 @@
       </c>
       <c r="N32" s="8"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -2936,7 +2897,7 @@
       </c>
       <c r="N33" s="8"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -2979,7 +2940,7 @@
       </c>
       <c r="N34" s="8"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -3022,7 +2983,7 @@
       </c>
       <c r="N35" s="8"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -3065,7 +3026,7 @@
       </c>
       <c r="N36" s="8"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -3108,7 +3069,7 @@
       </c>
       <c r="N37" s="8"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -3151,7 +3112,7 @@
       </c>
       <c r="N38" s="8"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -3194,7 +3155,7 @@
       </c>
       <c r="N39" s="8"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -3237,7 +3198,7 @@
       </c>
       <c r="N40" s="8"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -3280,7 +3241,7 @@
       </c>
       <c r="N41" s="8"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -3323,7 +3284,7 @@
       </c>
       <c r="N42" s="8"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14">
       <c r="A43" s="11">
         <v>42</v>
       </c>
@@ -3366,7 +3327,7 @@
       </c>
       <c r="N43" s="8"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14">
       <c r="A44" s="11">
         <v>43</v>
       </c>
@@ -3409,7 +3370,7 @@
       </c>
       <c r="N44" s="8"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14">
       <c r="A45" s="11">
         <v>44</v>
       </c>
@@ -3452,7 +3413,7 @@
       </c>
       <c r="N45" s="8"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14">
       <c r="A46" s="11">
         <v>45</v>
       </c>
@@ -3495,7 +3456,7 @@
       </c>
       <c r="N46" s="8"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14">
       <c r="A47" s="11">
         <v>46</v>
       </c>
@@ -3538,7 +3499,7 @@
       </c>
       <c r="N47" s="8"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14">
       <c r="A48" s="11">
         <v>47</v>
       </c>
@@ -3581,7 +3542,7 @@
       </c>
       <c r="N48" s="8"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14">
       <c r="A49" s="11">
         <v>48</v>
       </c>
@@ -3624,7 +3585,7 @@
       </c>
       <c r="N49" s="8"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14">
       <c r="A50" s="11">
         <v>49</v>
       </c>
@@ -3667,7 +3628,7 @@
       </c>
       <c r="N50" s="3"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14">
       <c r="A51" s="11">
         <v>50</v>
       </c>
@@ -3710,7 +3671,7 @@
       </c>
       <c r="N51" s="3"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14">
       <c r="A52" s="11">
         <v>51</v>
       </c>
@@ -3753,7 +3714,7 @@
       </c>
       <c r="N52" s="3"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14">
       <c r="A53" s="11">
         <v>52</v>
       </c>
@@ -3796,7 +3757,7 @@
       </c>
       <c r="N53" s="3"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14">
       <c r="A54" s="11">
         <v>53</v>
       </c>
@@ -3839,7 +3800,7 @@
       </c>
       <c r="N54" s="3"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14">
       <c r="A55" s="11">
         <v>54</v>
       </c>
@@ -3882,7 +3843,7 @@
       </c>
       <c r="N55" s="3"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14">
       <c r="A56" s="11">
         <v>55</v>
       </c>
@@ -3925,7 +3886,7 @@
       </c>
       <c r="N56" s="3"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14">
       <c r="A57" s="11">
         <v>56</v>
       </c>
@@ -3968,7 +3929,7 @@
       </c>
       <c r="N57" s="3"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14">
       <c r="A58" s="11">
         <v>57</v>
       </c>
@@ -4011,7 +3972,7 @@
       </c>
       <c r="N58" s="8"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14">
       <c r="A59" s="11">
         <v>58</v>
       </c>
@@ -4035,7 +3996,7 @@
         <v>296</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>228</v>
@@ -4054,7 +4015,7 @@
       </c>
       <c r="N59" s="3"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14">
       <c r="A60" s="11">
         <v>59</v>
       </c>
@@ -4097,7 +4058,7 @@
       </c>
       <c r="N60" s="3"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14">
       <c r="A61" s="11">
         <v>60</v>
       </c>
@@ -4140,7 +4101,7 @@
       </c>
       <c r="N61" s="3"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14">
       <c r="A62" s="11">
         <v>61</v>
       </c>
@@ -4164,7 +4125,7 @@
         <v>199</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>4</v>
@@ -4183,12 +4144,12 @@
       </c>
       <c r="N62" s="3"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14">
       <c r="A63" s="11">
         <v>62</v>
       </c>
       <c r="B63" s="12">
-        <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",N63))),NOT(ISERROR(SEARCH("app.box.com",N63))),NOT(ISERROR(SEARCH("islamway.net",N63))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N63))),NOT(ISERROR(SEARCH("tanzil.net",N63))),NOT(ISERROR(SEARCH("alsirah.com",N63))),NOT(ISERROR(SEARCH("i36",N63))),(RIGHT(N63,4)=".pdf"),C63=6,C63=8,C63=9),0,1)</f>
+        <f t="shared" ref="B63:B69" si="2">IF(OR(NOT(ISERROR(SEARCH("archive.org",N63))),NOT(ISERROR(SEARCH("app.box.com",N63))),NOT(ISERROR(SEARCH("islamway.net",N63))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N63))),NOT(ISERROR(SEARCH("tanzil.net",N63))),NOT(ISERROR(SEARCH("alsirah.com",N63))),NOT(ISERROR(SEARCH("i36",N63))),(RIGHT(N63,4)=".pdf"),C63=6,C63=8,C63=9),0,1)</f>
         <v>1</v>
       </c>
       <c r="C63" s="7">
@@ -4226,12 +4187,12 @@
       </c>
       <c r="N63" s="3"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14">
       <c r="A64" s="11">
         <v>63</v>
       </c>
       <c r="B64" s="12">
-        <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",N64))),NOT(ISERROR(SEARCH("app.box.com",N64))),NOT(ISERROR(SEARCH("islamway.net",N64))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N64))),NOT(ISERROR(SEARCH("tanzil.net",N64))),NOT(ISERROR(SEARCH("alsirah.com",N64))),NOT(ISERROR(SEARCH("i36",N64))),(RIGHT(N64,4)=".pdf"),C64=6,C64=8,C64=9),0,1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C64" s="7">
@@ -4269,12 +4230,12 @@
       </c>
       <c r="N64" s="3"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14">
       <c r="A65" s="11">
         <v>64</v>
       </c>
       <c r="B65" s="12">
-        <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",N65))),NOT(ISERROR(SEARCH("app.box.com",N65))),NOT(ISERROR(SEARCH("islamway.net",N65))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N65))),NOT(ISERROR(SEARCH("tanzil.net",N65))),NOT(ISERROR(SEARCH("alsirah.com",N65))),NOT(ISERROR(SEARCH("i36",N65))),(RIGHT(N65,4)=".pdf"),C65=6,C65=8,C65=9),0,1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C65" s="7">
@@ -4312,12 +4273,12 @@
       </c>
       <c r="N65" s="3"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14">
       <c r="A66" s="11">
         <v>65</v>
       </c>
       <c r="B66" s="12">
-        <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",N66))),NOT(ISERROR(SEARCH("app.box.com",N66))),NOT(ISERROR(SEARCH("islamway.net",N66))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N66))),NOT(ISERROR(SEARCH("tanzil.net",N66))),NOT(ISERROR(SEARCH("alsirah.com",N66))),NOT(ISERROR(SEARCH("i36",N66))),(RIGHT(N66,4)=".pdf"),C66=6,C66=8,C66=9),0,1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C66" s="7">
@@ -4355,12 +4316,12 @@
       </c>
       <c r="N66" s="3"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14">
       <c r="A67" s="11">
         <v>66</v>
       </c>
       <c r="B67" s="12">
-        <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",N67))),NOT(ISERROR(SEARCH("app.box.com",N67))),NOT(ISERROR(SEARCH("islamway.net",N67))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N67))),NOT(ISERROR(SEARCH("tanzil.net",N67))),NOT(ISERROR(SEARCH("alsirah.com",N67))),NOT(ISERROR(SEARCH("i36",N67))),(RIGHT(N67,4)=".pdf"),C67=6,C67=8,C67=9),0,1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C67" s="7">
@@ -4398,41 +4359,132 @@
       </c>
       <c r="N67" s="3"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" s="13">
-        <f>SUBTOTAL(2,A2:A67)</f>
-        <v>66</v>
-      </c>
-      <c r="B68" s="14">
-        <f>SUBTOTAL(9,B2:B67)</f>
-        <v>29</v>
+    <row r="68" spans="1:14">
+      <c r="A68" s="11">
+        <v>67</v>
+      </c>
+      <c r="B68" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C68" s="7">
+        <v>10</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F68" s="9">
+        <v>10.02</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="11">
+        <v>68</v>
+      </c>
+      <c r="B69" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C69" s="7">
+        <v>10</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F69" s="9">
+        <v>10.01</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="13">
+        <f>SUBTOTAL(2,A2:A69)</f>
+        <v>68</v>
+      </c>
+      <c r="B70" s="14">
+        <f>SUBTOTAL(9,B2:B69)</f>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N67" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L56">
+  <autoFilter ref="A1:N69">
+    <sortState ref="A2:L56">
       <sortCondition ref="A1:A56"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J63" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K63" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="L63" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="L4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="K4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="J4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="M63" r:id="rId7" xr:uid="{7B789199-95F3-4195-A285-51EDCF3D534A}"/>
-    <hyperlink ref="M4" r:id="rId8" xr:uid="{0C91612E-180E-4394-9099-57000F451CA6}"/>
-    <hyperlink ref="N4" r:id="rId9" xr:uid="{7B6EA960-4C65-4A0B-8B10-6BBE209CBE2F}"/>
-    <hyperlink ref="J7" r:id="rId10" xr:uid="{B99DACB7-A41A-4E57-8271-DDF75751E7CC}"/>
-    <hyperlink ref="K7" r:id="rId11" xr:uid="{972C7AFD-C4CC-41D1-8402-D2B941DF27A6}"/>
-    <hyperlink ref="L7" r:id="rId12" xr:uid="{CD4221CB-313E-4D4C-AEEF-A0614FC1D120}"/>
-    <hyperlink ref="M7" r:id="rId13" xr:uid="{4B18BAC0-A0ED-4C3C-BB0E-AAEF6E78F4D3}"/>
+    <hyperlink ref="J63" r:id="rId1"/>
+    <hyperlink ref="K63" r:id="rId2"/>
+    <hyperlink ref="L63" r:id="rId3"/>
+    <hyperlink ref="L4" r:id="rId4"/>
+    <hyperlink ref="K4" r:id="rId5"/>
+    <hyperlink ref="J4" r:id="rId6"/>
+    <hyperlink ref="M63" r:id="rId7"/>
+    <hyperlink ref="M4" r:id="rId8"/>
+    <hyperlink ref="N4" r:id="rId9"/>
+    <hyperlink ref="J7" r:id="rId10"/>
+    <hyperlink ref="K7" r:id="rId11"/>
+    <hyperlink ref="L7" r:id="rId12"/>
+    <hyperlink ref="M7" r:id="rId13"/>
+    <hyperlink ref="J69" r:id="rId14"/>
+    <hyperlink ref="K69" r:id="rId15"/>
+    <hyperlink ref="L69" r:id="rId16"/>
+    <hyperlink ref="M69" r:id="rId17"/>
+    <hyperlink ref="J68" r:id="rId18"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>
-  <pageSetup paperSize="8" scale="65" orientation="landscape" r:id="rId14"/>
+  <pageSetup paperSize="8" scale="65" orientation="landscape" r:id="rId19"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;F - &amp;A&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
@@ -4441,21 +4493,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="5" width="24.7109375" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>280</v>
       </c>
@@ -4478,7 +4530,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>283</v>
       </c>
@@ -4495,21 +4547,21 @@
         <v>281</v>
       </c>
       <c r="F2" s="16">
-        <f>DATEVALUE(MID(Sciences!$H59,(FIND("طبعة @ ",Sciences!$H59)+7),10))</f>
-        <v>45073</v>
+        <f ca="1">DATEVALUE(MID(Sciences!$H59,(FIND("طبعة @ ",Sciences!$H59)+7),10))</f>
+        <v>45075</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="15" t="s">
         <v>284</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="B5" s="18" t="s">
         <v>302</v>
       </c>
@@ -4517,18 +4569,18 @@
         <v>302</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="C6" s="18" t="s">
         <v>303</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:G2"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId3"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>

--- a/i360db/0.9.7/i360db.xlsx
+++ b/i360db/0.9.7/i360db.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Files\My Programs\موسوعات إسلامية_عربية\_Sprints\AppGyver\_db\i360db\0.9.7\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE3ED0D-194D-4F4F-82E2-6F2AFBD2DF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="11640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sciences" sheetId="1" r:id="rId1"/>
@@ -12,16 +18,29 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Complements!$A$1:$G$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sciences!$A$1:$N$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sciences!$A$1:$N$70</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Complements!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sciences!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="114210" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="326">
   <si>
     <t>AppleAppStore</t>
   </si>
@@ -990,18 +1009,27 @@
   </si>
   <si>
     <t>طبعة @ 2023/05/29 م - 1444/11/09 هـ</t>
+  </si>
+  <si>
+    <t>https://shamela.ws/book/9987</t>
+  </si>
+  <si>
+    <t>HadithSciences&amp;Terminology</t>
+  </si>
+  <si>
+    <t>«الوسيط في علوم و مصطلح الحديث»</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1166,6 +1194,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1212,7 +1248,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1244,9 +1280,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1278,6 +1332,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1453,8 +1525,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -1463,7 +1535,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
@@ -1473,7 +1545,7 @@
     <col min="10" max="14" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
@@ -1517,7 +1589,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1560,7 +1632,7 @@
       </c>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1603,7 +1675,7 @@
       </c>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1648,7 +1720,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1691,7 +1763,7 @@
       </c>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1734,7 +1806,7 @@
       </c>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1779,7 +1851,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1797,7 +1869,7 @@
         <v>243</v>
       </c>
       <c r="F8" s="9">
-        <v>2.0699999999999998</v>
+        <v>2.08</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>105</v>
@@ -1822,7 +1894,7 @@
       </c>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1865,7 +1937,7 @@
       </c>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1908,7 +1980,7 @@
       </c>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1951,7 +2023,7 @@
       </c>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -1994,7 +2066,7 @@
       </c>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -2037,7 +2109,7 @@
       </c>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -2080,7 +2152,7 @@
       </c>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -2123,7 +2195,7 @@
       </c>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -2166,7 +2238,7 @@
       </c>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -2209,7 +2281,7 @@
       </c>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -2252,7 +2324,7 @@
       </c>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -2295,7 +2367,7 @@
       </c>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -2338,7 +2410,7 @@
       </c>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -2381,7 +2453,7 @@
       </c>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -2424,7 +2496,7 @@
       </c>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -2467,7 +2539,7 @@
       </c>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -2510,7 +2582,7 @@
       </c>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -2553,7 +2625,7 @@
       </c>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -2596,7 +2668,7 @@
       </c>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -2639,7 +2711,7 @@
       </c>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -2682,7 +2754,7 @@
       </c>
       <c r="N28" s="3"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -2725,7 +2797,7 @@
       </c>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -2768,7 +2840,7 @@
       </c>
       <c r="N30" s="8"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -2811,7 +2883,7 @@
       </c>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -2854,7 +2926,7 @@
       </c>
       <c r="N32" s="8"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -2897,7 +2969,7 @@
       </c>
       <c r="N33" s="8"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -2940,7 +3012,7 @@
       </c>
       <c r="N34" s="8"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -2983,7 +3055,7 @@
       </c>
       <c r="N35" s="8"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -3026,7 +3098,7 @@
       </c>
       <c r="N36" s="8"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -3069,7 +3141,7 @@
       </c>
       <c r="N37" s="8"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -3112,7 +3184,7 @@
       </c>
       <c r="N38" s="8"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -3155,7 +3227,7 @@
       </c>
       <c r="N39" s="8"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -3198,7 +3270,7 @@
       </c>
       <c r="N40" s="8"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -3241,7 +3313,7 @@
       </c>
       <c r="N41" s="8"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -3284,7 +3356,7 @@
       </c>
       <c r="N42" s="8"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
         <v>42</v>
       </c>
@@ -3327,7 +3399,7 @@
       </c>
       <c r="N43" s="8"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="11">
         <v>43</v>
       </c>
@@ -3370,7 +3442,7 @@
       </c>
       <c r="N44" s="8"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
         <v>44</v>
       </c>
@@ -3413,7 +3485,7 @@
       </c>
       <c r="N45" s="8"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
         <v>45</v>
       </c>
@@ -3456,7 +3528,7 @@
       </c>
       <c r="N46" s="8"/>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
         <v>46</v>
       </c>
@@ -3499,7 +3571,7 @@
       </c>
       <c r="N47" s="8"/>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
         <v>47</v>
       </c>
@@ -3542,7 +3614,7 @@
       </c>
       <c r="N48" s="8"/>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
         <v>48</v>
       </c>
@@ -3585,7 +3657,7 @@
       </c>
       <c r="N49" s="8"/>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="11">
         <v>49</v>
       </c>
@@ -3628,7 +3700,7 @@
       </c>
       <c r="N50" s="3"/>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="11">
         <v>50</v>
       </c>
@@ -3671,7 +3743,7 @@
       </c>
       <c r="N51" s="3"/>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="11">
         <v>51</v>
       </c>
@@ -3714,7 +3786,7 @@
       </c>
       <c r="N52" s="3"/>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="11">
         <v>52</v>
       </c>
@@ -3757,7 +3829,7 @@
       </c>
       <c r="N53" s="3"/>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="11">
         <v>53</v>
       </c>
@@ -3800,7 +3872,7 @@
       </c>
       <c r="N54" s="3"/>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="11">
         <v>54</v>
       </c>
@@ -3843,7 +3915,7 @@
       </c>
       <c r="N55" s="3"/>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="11">
         <v>55</v>
       </c>
@@ -3886,7 +3958,7 @@
       </c>
       <c r="N56" s="3"/>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="11">
         <v>56</v>
       </c>
@@ -3929,7 +4001,7 @@
       </c>
       <c r="N57" s="3"/>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="11">
         <v>57</v>
       </c>
@@ -3972,7 +4044,7 @@
       </c>
       <c r="N58" s="8"/>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="11">
         <v>58</v>
       </c>
@@ -4015,9 +4087,9 @@
       </c>
       <c r="N59" s="3"/>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="11">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B60" s="12">
         <f t="shared" si="1"/>
@@ -4033,32 +4105,32 @@
         <v>243</v>
       </c>
       <c r="F60" s="9">
-        <v>2.0299999999999998</v>
+        <v>2.04</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="N60" s="3"/>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="11">
         <v>60</v>
       </c>
@@ -4101,7 +4173,7 @@
       </c>
       <c r="N61" s="3"/>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="11">
         <v>61</v>
       </c>
@@ -4144,12 +4216,12 @@
       </c>
       <c r="N62" s="3"/>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="11">
         <v>62</v>
       </c>
       <c r="B63" s="12">
-        <f t="shared" ref="B63:B69" si="2">IF(OR(NOT(ISERROR(SEARCH("archive.org",N63))),NOT(ISERROR(SEARCH("app.box.com",N63))),NOT(ISERROR(SEARCH("islamway.net",N63))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N63))),NOT(ISERROR(SEARCH("tanzil.net",N63))),NOT(ISERROR(SEARCH("alsirah.com",N63))),NOT(ISERROR(SEARCH("i36",N63))),(RIGHT(N63,4)=".pdf"),C63=6,C63=8,C63=9),0,1)</f>
+        <f t="shared" ref="B63:B68" si="2">IF(OR(NOT(ISERROR(SEARCH("archive.org",N63))),NOT(ISERROR(SEARCH("app.box.com",N63))),NOT(ISERROR(SEARCH("islamway.net",N63))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N63))),NOT(ISERROR(SEARCH("tanzil.net",N63))),NOT(ISERROR(SEARCH("alsirah.com",N63))),NOT(ISERROR(SEARCH("i36",N63))),(RIGHT(N63,4)=".pdf"),C63=6,C63=8,C63=9),0,1)</f>
         <v>1</v>
       </c>
       <c r="C63" s="7">
@@ -4187,7 +4259,7 @@
       </c>
       <c r="N63" s="3"/>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="11">
         <v>63</v>
       </c>
@@ -4230,7 +4302,7 @@
       </c>
       <c r="N64" s="3"/>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="11">
         <v>64</v>
       </c>
@@ -4273,12 +4345,12 @@
       </c>
       <c r="N65" s="3"/>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="11">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B66" s="12">
-        <f t="shared" si="2"/>
+        <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",N66))),NOT(ISERROR(SEARCH("app.box.com",N66))),NOT(ISERROR(SEARCH("islamway.net",N66))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N66))),NOT(ISERROR(SEARCH("tanzil.net",N66))),NOT(ISERROR(SEARCH("alsirah.com",N66))),NOT(ISERROR(SEARCH("i36",N66))),(RIGHT(N66,4)=".pdf"),C66=6,C66=8,C66=9),0,1)</f>
         <v>1</v>
       </c>
       <c r="C66" s="7">
@@ -4291,32 +4363,32 @@
         <v>243</v>
       </c>
       <c r="F66" s="9">
-        <v>2.04</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>245</v>
+        <v>324</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>255</v>
+        <v>325</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>247</v>
+        <v>323</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>247</v>
+        <v>323</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>247</v>
+        <v>323</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>247</v>
+        <v>323</v>
       </c>
       <c r="N66" s="3"/>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="11">
         <v>66</v>
       </c>
@@ -4359,7 +4431,7 @@
       </c>
       <c r="N67" s="3"/>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="11">
         <v>67</v>
       </c>
@@ -4402,12 +4474,12 @@
       </c>
       <c r="N68" s="3"/>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="11">
         <v>68</v>
       </c>
       <c r="B69" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B69:B70" si="3">IF(OR(NOT(ISERROR(SEARCH("archive.org",N69))),NOT(ISERROR(SEARCH("app.box.com",N69))),NOT(ISERROR(SEARCH("islamway.net",N69))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N69))),NOT(ISERROR(SEARCH("tanzil.net",N69))),NOT(ISERROR(SEARCH("alsirah.com",N69))),NOT(ISERROR(SEARCH("i36",N69))),(RIGHT(N69,4)=".pdf"),C69=6,C69=8,C69=9),0,1)</f>
         <v>1</v>
       </c>
       <c r="C69" s="7">
@@ -4445,46 +4517,93 @@
       </c>
       <c r="N69" s="3"/>
     </row>
-    <row r="70" spans="1:14">
-      <c r="A70" s="13">
-        <f>SUBTOTAL(2,A2:A69)</f>
-        <v>68</v>
-      </c>
-      <c r="B70" s="14">
-        <f>SUBTOTAL(9,B2:B69)</f>
-        <v>31</v>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" s="11">
+        <v>59</v>
+      </c>
+      <c r="B70" s="12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C70" s="7">
+        <v>2</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F70" s="9">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" s="13">
+        <f>SUBTOTAL(2,A2:A70)</f>
+        <v>69</v>
+      </c>
+      <c r="B71" s="14">
+        <f>SUBTOTAL(9,B2:B70)</f>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N69">
-    <sortState ref="A2:L56">
+  <autoFilter ref="A1:N70" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L56">
       <sortCondition ref="A1:A56"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J63" r:id="rId1"/>
-    <hyperlink ref="K63" r:id="rId2"/>
-    <hyperlink ref="L63" r:id="rId3"/>
-    <hyperlink ref="L4" r:id="rId4"/>
-    <hyperlink ref="K4" r:id="rId5"/>
-    <hyperlink ref="J4" r:id="rId6"/>
-    <hyperlink ref="M63" r:id="rId7"/>
-    <hyperlink ref="M4" r:id="rId8"/>
-    <hyperlink ref="N4" r:id="rId9"/>
-    <hyperlink ref="J7" r:id="rId10"/>
-    <hyperlink ref="K7" r:id="rId11"/>
-    <hyperlink ref="L7" r:id="rId12"/>
-    <hyperlink ref="M7" r:id="rId13"/>
-    <hyperlink ref="J69" r:id="rId14"/>
-    <hyperlink ref="K69" r:id="rId15"/>
-    <hyperlink ref="L69" r:id="rId16"/>
-    <hyperlink ref="M69" r:id="rId17"/>
-    <hyperlink ref="J68" r:id="rId18"/>
+    <hyperlink ref="J63" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K63" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="L63" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="L4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="K4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="M63" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="M4" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="N4" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="K7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="L7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="M7" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J68" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="J69" r:id="rId15" xr:uid="{8C03B096-5816-4E39-B002-9EFBDDC62472}"/>
+    <hyperlink ref="K69" r:id="rId16" xr:uid="{AB462DBB-1201-4EFE-812F-128A567DA508}"/>
+    <hyperlink ref="L69" r:id="rId17" xr:uid="{CD4066AA-7C69-42D2-BCF0-3CB7B13394B5}"/>
+    <hyperlink ref="M69" r:id="rId18" xr:uid="{BD26F55F-B4B1-4965-98CF-79469E4E0697}"/>
+    <hyperlink ref="J66" r:id="rId19" xr:uid="{959DAAC2-065D-4B9F-AFE7-8C978BA9CE97}"/>
+    <hyperlink ref="K66" r:id="rId20" xr:uid="{B46AA0A7-9CF3-4320-A74D-3EB68B71EAF7}"/>
+    <hyperlink ref="L66" r:id="rId21" xr:uid="{75CDFC10-6B7C-43B7-84C0-3C4665BC4820}"/>
+    <hyperlink ref="M66" r:id="rId22" xr:uid="{68C31814-E0F3-41F2-B56A-AD9B259485ED}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>
-  <pageSetup paperSize="8" scale="65" orientation="landscape" r:id="rId19"/>
+  <pageSetup paperSize="8" scale="65" orientation="landscape" r:id="rId23"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;F - &amp;A&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
@@ -4493,7 +4612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4501,13 +4620,13 @@
       <selection pane="bottomLeft" activeCell="G2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="24.7109375" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>280</v>
       </c>
@@ -4530,7 +4649,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>283</v>
       </c>
@@ -4547,21 +4666,21 @@
         <v>281</v>
       </c>
       <c r="F2" s="16">
-        <f ca="1">DATEVALUE(MID(Sciences!$H59,(FIND("طبعة @ ",Sciences!$H59)+7),10))</f>
+        <f>DATEVALUE(MID(Sciences!$H59,(FIND("طبعة @ ",Sciences!$H59)+7),10))</f>
         <v>45075</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>284</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="18" t="s">
         <v>302</v>
       </c>
@@ -4569,18 +4688,18 @@
         <v>302</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C6" s="18" t="s">
         <v>303</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G2"/>
+  <autoFilter ref="A1:G2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="B2" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>

--- a/i360db/0.9.7/i360db.xlsx
+++ b/i360db/0.9.7/i360db.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Files\My Programs\موسوعات إسلامية_عربية\_Sprints\AppGyver\_db\i360db\0.9.7\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE3ED0D-194D-4F4F-82E2-6F2AFBD2DF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sciences" sheetId="1" r:id="rId1"/>
@@ -22,20 +16,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Complements!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sciences!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="114210" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -984,9 +965,6 @@
     <t>المصاحف بالقراءات العشر</t>
   </si>
   <si>
-    <t>اللغة العربية و علومها</t>
-  </si>
-  <si>
     <t>https://ar.wikipedia.org/wiki/بوابة:اللغة_العربية</t>
   </si>
   <si>
@@ -1002,9 +980,6 @@
     <t>ArabiaEncyclopedia</t>
   </si>
   <si>
-    <t>ArabiaSciences</t>
-  </si>
-  <si>
     <t>ArabiaPortal</t>
   </si>
   <si>
@@ -1018,18 +993,24 @@
   </si>
   <si>
     <t>«الوسيط في علوم و مصطلح الحديث»</t>
+  </si>
+  <si>
+    <t>اللغة العربية</t>
+  </si>
+  <si>
+    <t>Arabia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1194,14 +1175,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1248,7 +1221,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1280,27 +1253,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1332,24 +1287,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1525,7 +1462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1535,7 +1472,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
@@ -1545,7 +1482,7 @@
     <col min="10" max="14" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
@@ -1589,7 +1526,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1632,7 +1569,7 @@
       </c>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1675,7 +1612,7 @@
       </c>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1720,7 +1657,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1763,7 +1700,7 @@
       </c>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1806,7 +1743,7 @@
       </c>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1851,7 +1788,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1894,7 +1831,7 @@
       </c>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1937,7 +1874,7 @@
       </c>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1980,7 +1917,7 @@
       </c>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -2023,7 +1960,7 @@
       </c>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -2066,7 +2003,7 @@
       </c>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -2109,7 +2046,7 @@
       </c>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -2152,7 +2089,7 @@
       </c>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -2195,7 +2132,7 @@
       </c>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -2238,7 +2175,7 @@
       </c>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -2281,7 +2218,7 @@
       </c>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -2324,7 +2261,7 @@
       </c>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -2367,7 +2304,7 @@
       </c>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -2410,7 +2347,7 @@
       </c>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -2453,7 +2390,7 @@
       </c>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -2496,7 +2433,7 @@
       </c>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -2539,7 +2476,7 @@
       </c>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -2582,7 +2519,7 @@
       </c>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -2625,7 +2562,7 @@
       </c>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -2668,7 +2605,7 @@
       </c>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -2711,7 +2648,7 @@
       </c>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -2754,7 +2691,7 @@
       </c>
       <c r="N28" s="3"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -2797,7 +2734,7 @@
       </c>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -2840,7 +2777,7 @@
       </c>
       <c r="N30" s="8"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -2883,7 +2820,7 @@
       </c>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -2926,7 +2863,7 @@
       </c>
       <c r="N32" s="8"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -2969,7 +2906,7 @@
       </c>
       <c r="N33" s="8"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -3012,7 +2949,7 @@
       </c>
       <c r="N34" s="8"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -3055,7 +2992,7 @@
       </c>
       <c r="N35" s="8"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -3098,7 +3035,7 @@
       </c>
       <c r="N36" s="8"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -3141,7 +3078,7 @@
       </c>
       <c r="N37" s="8"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -3184,7 +3121,7 @@
       </c>
       <c r="N38" s="8"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -3227,7 +3164,7 @@
       </c>
       <c r="N39" s="8"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -3270,7 +3207,7 @@
       </c>
       <c r="N40" s="8"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -3313,7 +3250,7 @@
       </c>
       <c r="N41" s="8"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -3356,7 +3293,7 @@
       </c>
       <c r="N42" s="8"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14">
       <c r="A43" s="11">
         <v>42</v>
       </c>
@@ -3399,7 +3336,7 @@
       </c>
       <c r="N43" s="8"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14">
       <c r="A44" s="11">
         <v>43</v>
       </c>
@@ -3442,7 +3379,7 @@
       </c>
       <c r="N44" s="8"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14">
       <c r="A45" s="11">
         <v>44</v>
       </c>
@@ -3485,7 +3422,7 @@
       </c>
       <c r="N45" s="8"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14">
       <c r="A46" s="11">
         <v>45</v>
       </c>
@@ -3528,7 +3465,7 @@
       </c>
       <c r="N46" s="8"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14">
       <c r="A47" s="11">
         <v>46</v>
       </c>
@@ -3571,7 +3508,7 @@
       </c>
       <c r="N47" s="8"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14">
       <c r="A48" s="11">
         <v>47</v>
       </c>
@@ -3614,7 +3551,7 @@
       </c>
       <c r="N48" s="8"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14">
       <c r="A49" s="11">
         <v>48</v>
       </c>
@@ -3657,7 +3594,7 @@
       </c>
       <c r="N49" s="8"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14">
       <c r="A50" s="11">
         <v>49</v>
       </c>
@@ -3700,7 +3637,7 @@
       </c>
       <c r="N50" s="3"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14">
       <c r="A51" s="11">
         <v>50</v>
       </c>
@@ -3743,7 +3680,7 @@
       </c>
       <c r="N51" s="3"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14">
       <c r="A52" s="11">
         <v>51</v>
       </c>
@@ -3786,7 +3723,7 @@
       </c>
       <c r="N52" s="3"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14">
       <c r="A53" s="11">
         <v>52</v>
       </c>
@@ -3829,7 +3766,7 @@
       </c>
       <c r="N53" s="3"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14">
       <c r="A54" s="11">
         <v>53</v>
       </c>
@@ -3872,7 +3809,7 @@
       </c>
       <c r="N54" s="3"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14">
       <c r="A55" s="11">
         <v>54</v>
       </c>
@@ -3915,7 +3852,7 @@
       </c>
       <c r="N55" s="3"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14">
       <c r="A56" s="11">
         <v>55</v>
       </c>
@@ -3958,7 +3895,7 @@
       </c>
       <c r="N56" s="3"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14">
       <c r="A57" s="11">
         <v>56</v>
       </c>
@@ -4001,7 +3938,7 @@
       </c>
       <c r="N57" s="3"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14">
       <c r="A58" s="11">
         <v>57</v>
       </c>
@@ -4044,7 +3981,7 @@
       </c>
       <c r="N58" s="8"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14">
       <c r="A59" s="11">
         <v>58</v>
       </c>
@@ -4068,7 +4005,7 @@
         <v>296</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>228</v>
@@ -4087,7 +4024,7 @@
       </c>
       <c r="N59" s="3"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14">
       <c r="A60" s="11">
         <v>65</v>
       </c>
@@ -4130,7 +4067,7 @@
       </c>
       <c r="N60" s="3"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14">
       <c r="A61" s="11">
         <v>60</v>
       </c>
@@ -4173,7 +4110,7 @@
       </c>
       <c r="N61" s="3"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14">
       <c r="A62" s="11">
         <v>61</v>
       </c>
@@ -4216,7 +4153,7 @@
       </c>
       <c r="N62" s="3"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14">
       <c r="A63" s="11">
         <v>62</v>
       </c>
@@ -4259,7 +4196,7 @@
       </c>
       <c r="N63" s="3"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14">
       <c r="A64" s="11">
         <v>63</v>
       </c>
@@ -4302,7 +4239,7 @@
       </c>
       <c r="N64" s="3"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14">
       <c r="A65" s="11">
         <v>64</v>
       </c>
@@ -4345,7 +4282,7 @@
       </c>
       <c r="N65" s="3"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14">
       <c r="A66" s="11">
         <v>69</v>
       </c>
@@ -4366,29 +4303,29 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="N66" s="3"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14">
       <c r="A67" s="11">
         <v>66</v>
       </c>
@@ -4431,7 +4368,7 @@
       </c>
       <c r="N67" s="3"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14">
       <c r="A68" s="11">
         <v>67</v>
       </c>
@@ -4443,86 +4380,86 @@
         <v>10</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="F68" s="9">
         <v>10.02</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>304</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N68" s="3"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14">
       <c r="A69" s="11">
         <v>68</v>
       </c>
       <c r="B69" s="12">
-        <f t="shared" ref="B69:B70" si="3">IF(OR(NOT(ISERROR(SEARCH("archive.org",N69))),NOT(ISERROR(SEARCH("app.box.com",N69))),NOT(ISERROR(SEARCH("islamway.net",N69))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N69))),NOT(ISERROR(SEARCH("tanzil.net",N69))),NOT(ISERROR(SEARCH("alsirah.com",N69))),NOT(ISERROR(SEARCH("i36",N69))),(RIGHT(N69,4)=".pdf"),C69=6,C69=8,C69=9),0,1)</f>
+        <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",N69))),NOT(ISERROR(SEARCH("app.box.com",N69))),NOT(ISERROR(SEARCH("islamway.net",N69))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N69))),NOT(ISERROR(SEARCH("tanzil.net",N69))),NOT(ISERROR(SEARCH("alsirah.com",N69))),NOT(ISERROR(SEARCH("i36",N69))),(RIGHT(N69,4)=".pdf"),C69=6,C69=8,C69=9),0,1)</f>
         <v>1</v>
       </c>
       <c r="C69" s="7">
         <v>10</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="F69" s="9">
         <v>10.01</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>304</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N69" s="3"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14">
       <c r="A70" s="11">
         <v>59</v>
       </c>
       <c r="B70" s="12">
-        <f t="shared" si="3"/>
+        <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",N70))),NOT(ISERROR(SEARCH("app.box.com",N70))),NOT(ISERROR(SEARCH("islamway.net",N70))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N70))),NOT(ISERROR(SEARCH("tanzil.net",N70))),NOT(ISERROR(SEARCH("alsirah.com",N70))),NOT(ISERROR(SEARCH("i36",N70))),(RIGHT(N70,4)=".pdf"),C70=6,C70=8,C70=9),0,1)</f>
         <v>1</v>
       </c>
       <c r="C70" s="7">
@@ -4560,7 +4497,7 @@
       </c>
       <c r="N70" s="3"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14">
       <c r="A71" s="13">
         <f>SUBTOTAL(2,A2:A70)</f>
         <v>69</v>
@@ -4571,35 +4508,35 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N70" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L56">
+  <autoFilter ref="A1:N70">
+    <sortState ref="A2:L56">
       <sortCondition ref="A1:A56"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J63" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K63" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="L63" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="L4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="K4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="J4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="M63" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="M4" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="N4" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="J7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="K7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="L7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="M7" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="J68" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="J69" r:id="rId15" xr:uid="{8C03B096-5816-4E39-B002-9EFBDDC62472}"/>
-    <hyperlink ref="K69" r:id="rId16" xr:uid="{AB462DBB-1201-4EFE-812F-128A567DA508}"/>
-    <hyperlink ref="L69" r:id="rId17" xr:uid="{CD4066AA-7C69-42D2-BCF0-3CB7B13394B5}"/>
-    <hyperlink ref="M69" r:id="rId18" xr:uid="{BD26F55F-B4B1-4965-98CF-79469E4E0697}"/>
-    <hyperlink ref="J66" r:id="rId19" xr:uid="{959DAAC2-065D-4B9F-AFE7-8C978BA9CE97}"/>
-    <hyperlink ref="K66" r:id="rId20" xr:uid="{B46AA0A7-9CF3-4320-A74D-3EB68B71EAF7}"/>
-    <hyperlink ref="L66" r:id="rId21" xr:uid="{75CDFC10-6B7C-43B7-84C0-3C4665BC4820}"/>
-    <hyperlink ref="M66" r:id="rId22" xr:uid="{68C31814-E0F3-41F2-B56A-AD9B259485ED}"/>
+    <hyperlink ref="J63" r:id="rId1"/>
+    <hyperlink ref="K63" r:id="rId2"/>
+    <hyperlink ref="L63" r:id="rId3"/>
+    <hyperlink ref="L4" r:id="rId4"/>
+    <hyperlink ref="K4" r:id="rId5"/>
+    <hyperlink ref="J4" r:id="rId6"/>
+    <hyperlink ref="M63" r:id="rId7"/>
+    <hyperlink ref="M4" r:id="rId8"/>
+    <hyperlink ref="N4" r:id="rId9"/>
+    <hyperlink ref="J7" r:id="rId10"/>
+    <hyperlink ref="K7" r:id="rId11"/>
+    <hyperlink ref="L7" r:id="rId12"/>
+    <hyperlink ref="M7" r:id="rId13"/>
+    <hyperlink ref="J68" r:id="rId14"/>
+    <hyperlink ref="J69" r:id="rId15"/>
+    <hyperlink ref="K69" r:id="rId16"/>
+    <hyperlink ref="L69" r:id="rId17"/>
+    <hyperlink ref="M69" r:id="rId18"/>
+    <hyperlink ref="J66" r:id="rId19"/>
+    <hyperlink ref="K66" r:id="rId20"/>
+    <hyperlink ref="L66" r:id="rId21"/>
+    <hyperlink ref="M66" r:id="rId22"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -4612,7 +4549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4620,13 +4557,13 @@
       <selection pane="bottomLeft" activeCell="G2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="5" width="24.7109375" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>280</v>
       </c>
@@ -4649,7 +4586,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>283</v>
       </c>
@@ -4666,21 +4603,21 @@
         <v>281</v>
       </c>
       <c r="F2" s="16">
-        <f>DATEVALUE(MID(Sciences!$H59,(FIND("طبعة @ ",Sciences!$H59)+7),10))</f>
+        <f ca="1">DATEVALUE(MID(Sciences!$H59,(FIND("طبعة @ ",Sciences!$H59)+7),10))</f>
         <v>45075</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="15" t="s">
         <v>284</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="B5" s="18" t="s">
         <v>302</v>
       </c>
@@ -4688,18 +4625,18 @@
         <v>302</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="C6" s="18" t="s">
         <v>303</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:G2"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId3"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>

--- a/i360db/0.9.7/i360db.xlsx
+++ b/i360db/0.9.7/i360db.xlsx
@@ -1663,10 +1663,10 @@
       </c>
       <c r="B5" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>266</v>
@@ -1675,7 +1675,7 @@
         <v>229</v>
       </c>
       <c r="F5" s="9">
-        <v>9.02</v>
+        <v>10.02</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>277</v>
@@ -3987,10 +3987,10 @@
       </c>
       <c r="B59" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>266</v>
@@ -3999,7 +3999,7 @@
         <v>229</v>
       </c>
       <c r="F59" s="9">
-        <v>9.0399999999999991</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>296</v>
@@ -4202,10 +4202,10 @@
       </c>
       <c r="B64" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>266</v>
@@ -4214,7 +4214,7 @@
         <v>229</v>
       </c>
       <c r="F64" s="9">
-        <v>9.01</v>
+        <v>10.01</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>268</v>
@@ -4245,10 +4245,10 @@
       </c>
       <c r="B65" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>266</v>
@@ -4257,7 +4257,7 @@
         <v>229</v>
       </c>
       <c r="F65" s="9">
-        <v>9.0299999999999994</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>271</v>
@@ -4374,10 +4374,10 @@
       </c>
       <c r="B68" s="12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>325</v>
@@ -4386,7 +4386,7 @@
         <v>324</v>
       </c>
       <c r="F68" s="9">
-        <v>10.02</v>
+        <v>9.02</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>318</v>
@@ -4417,10 +4417,10 @@
       </c>
       <c r="B69" s="12">
         <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",N69))),NOT(ISERROR(SEARCH("app.box.com",N69))),NOT(ISERROR(SEARCH("islamway.net",N69))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",N69))),NOT(ISERROR(SEARCH("tanzil.net",N69))),NOT(ISERROR(SEARCH("alsirah.com",N69))),NOT(ISERROR(SEARCH("i36",N69))),(RIGHT(N69,4)=".pdf"),C69=6,C69=8,C69=9),0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>325</v>
@@ -4429,7 +4429,7 @@
         <v>324</v>
       </c>
       <c r="F69" s="9">
-        <v>10.01</v>
+        <v>9.01</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>319</v>
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B71" s="14">
         <f>SUBTOTAL(9,B2:B70)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/i360db/0.9.7/i360db.xlsx
+++ b/i360db/0.9.7/i360db.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="327">
   <si>
     <t>AppleAppStore</t>
   </si>
@@ -999,6 +999,9 @@
   </si>
   <si>
     <t>Arabia</t>
+  </si>
+  <si>
+    <t>https://tafsir.app/</t>
   </si>
 </sst>
 </file>
@@ -4151,7 +4154,9 @@
       <c r="M62" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="N62" s="3"/>
+      <c r="N62" s="3" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="11">
@@ -4537,10 +4542,11 @@
     <hyperlink ref="K66" r:id="rId20"/>
     <hyperlink ref="L66" r:id="rId21"/>
     <hyperlink ref="M66" r:id="rId22"/>
+    <hyperlink ref="N62" r:id="rId23"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>
-  <pageSetup paperSize="8" scale="65" orientation="landscape" r:id="rId23"/>
+  <pageSetup paperSize="8" scale="65" orientation="landscape" r:id="rId24"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;F - &amp;A&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>

--- a/i360db/0.9.7/i360db.xlsx
+++ b/i360db/0.9.7/i360db.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2a2251e49424f27c/275/My Files/My Programs/موسوعات إسلامية_عربية/_Sprints/AppGyver/_db/i360db/0.9.7/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_420803E4693B2FA964008974B3C89038CED5B20D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D2E958F-64F1-40DD-B8B2-99FDF402EBBB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="11640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sciences" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,20 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Complements!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sciences!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="114210" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -983,9 +1002,6 @@
     <t>ArabiaPortal</t>
   </si>
   <si>
-    <t>طبعة @ 2023/05/29 م - 1444/11/09 هـ</t>
-  </si>
-  <si>
     <t>https://shamela.ws/book/9987</t>
   </si>
   <si>
@@ -1002,18 +1018,21 @@
   </si>
   <si>
     <t>https://tafsir.app/</t>
+  </si>
+  <si>
+    <t>طبعة @ 2023/05/31 م - 1444/11/11 هـ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1178,6 +1197,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1224,7 +1251,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1256,9 +1283,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1290,6 +1335,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1465,17 +1528,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
@@ -1485,7 +1548,7 @@
     <col min="10" max="14" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
@@ -1529,7 +1592,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1572,7 +1635,7 @@
       </c>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1615,7 +1678,7 @@
       </c>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1660,7 +1723,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1703,7 +1766,7 @@
       </c>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1746,7 +1809,7 @@
       </c>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1791,7 +1854,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1834,7 +1897,7 @@
       </c>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1877,7 +1940,7 @@
       </c>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1920,7 +1983,7 @@
       </c>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1963,7 +2026,7 @@
       </c>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -2006,7 +2069,7 @@
       </c>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -2049,7 +2112,7 @@
       </c>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -2092,7 +2155,7 @@
       </c>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -2135,7 +2198,7 @@
       </c>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -2178,7 +2241,7 @@
       </c>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -2221,7 +2284,7 @@
       </c>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -2264,7 +2327,7 @@
       </c>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -2307,7 +2370,7 @@
       </c>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -2350,7 +2413,7 @@
       </c>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -2393,7 +2456,7 @@
       </c>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -2436,7 +2499,7 @@
       </c>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -2479,7 +2542,7 @@
       </c>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -2522,7 +2585,7 @@
       </c>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -2565,7 +2628,7 @@
       </c>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -2608,7 +2671,7 @@
       </c>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -2651,7 +2714,7 @@
       </c>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -2694,7 +2757,7 @@
       </c>
       <c r="N28" s="3"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -2737,7 +2800,7 @@
       </c>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -2780,7 +2843,7 @@
       </c>
       <c r="N30" s="8"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -2823,7 +2886,7 @@
       </c>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -2866,7 +2929,7 @@
       </c>
       <c r="N32" s="8"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -2909,7 +2972,7 @@
       </c>
       <c r="N33" s="8"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -2952,7 +3015,7 @@
       </c>
       <c r="N34" s="8"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -2995,7 +3058,7 @@
       </c>
       <c r="N35" s="8"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -3038,7 +3101,7 @@
       </c>
       <c r="N36" s="8"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -3081,7 +3144,7 @@
       </c>
       <c r="N37" s="8"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -3124,7 +3187,7 @@
       </c>
       <c r="N38" s="8"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -3167,7 +3230,7 @@
       </c>
       <c r="N39" s="8"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -3210,7 +3273,7 @@
       </c>
       <c r="N40" s="8"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -3253,7 +3316,7 @@
       </c>
       <c r="N41" s="8"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -3296,7 +3359,7 @@
       </c>
       <c r="N42" s="8"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
         <v>42</v>
       </c>
@@ -3339,7 +3402,7 @@
       </c>
       <c r="N43" s="8"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="11">
         <v>43</v>
       </c>
@@ -3382,7 +3445,7 @@
       </c>
       <c r="N44" s="8"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
         <v>44</v>
       </c>
@@ -3425,7 +3488,7 @@
       </c>
       <c r="N45" s="8"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
         <v>45</v>
       </c>
@@ -3468,7 +3531,7 @@
       </c>
       <c r="N46" s="8"/>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
         <v>46</v>
       </c>
@@ -3511,7 +3574,7 @@
       </c>
       <c r="N47" s="8"/>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
         <v>47</v>
       </c>
@@ -3554,7 +3617,7 @@
       </c>
       <c r="N48" s="8"/>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
         <v>48</v>
       </c>
@@ -3597,7 +3660,7 @@
       </c>
       <c r="N49" s="8"/>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="11">
         <v>49</v>
       </c>
@@ -3640,7 +3703,7 @@
       </c>
       <c r="N50" s="3"/>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="11">
         <v>50</v>
       </c>
@@ -3683,7 +3746,7 @@
       </c>
       <c r="N51" s="3"/>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="11">
         <v>51</v>
       </c>
@@ -3726,7 +3789,7 @@
       </c>
       <c r="N52" s="3"/>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="11">
         <v>52</v>
       </c>
@@ -3769,7 +3832,7 @@
       </c>
       <c r="N53" s="3"/>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="11">
         <v>53</v>
       </c>
@@ -3812,7 +3875,7 @@
       </c>
       <c r="N54" s="3"/>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="11">
         <v>54</v>
       </c>
@@ -3855,7 +3918,7 @@
       </c>
       <c r="N55" s="3"/>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="11">
         <v>55</v>
       </c>
@@ -3898,7 +3961,7 @@
       </c>
       <c r="N56" s="3"/>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="11">
         <v>56</v>
       </c>
@@ -3941,7 +4004,7 @@
       </c>
       <c r="N57" s="3"/>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="11">
         <v>57</v>
       </c>
@@ -3984,7 +4047,7 @@
       </c>
       <c r="N58" s="8"/>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="11">
         <v>58</v>
       </c>
@@ -4008,7 +4071,7 @@
         <v>296</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>228</v>
@@ -4027,7 +4090,7 @@
       </c>
       <c r="N59" s="3"/>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="11">
         <v>65</v>
       </c>
@@ -4070,7 +4133,7 @@
       </c>
       <c r="N60" s="3"/>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="11">
         <v>60</v>
       </c>
@@ -4113,7 +4176,7 @@
       </c>
       <c r="N61" s="3"/>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="11">
         <v>61</v>
       </c>
@@ -4155,10 +4218,10 @@
         <v>96</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="11">
         <v>62</v>
       </c>
@@ -4201,7 +4264,7 @@
       </c>
       <c r="N63" s="3"/>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="11">
         <v>63</v>
       </c>
@@ -4244,7 +4307,7 @@
       </c>
       <c r="N64" s="3"/>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="11">
         <v>64</v>
       </c>
@@ -4287,7 +4350,7 @@
       </c>
       <c r="N65" s="3"/>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="11">
         <v>69</v>
       </c>
@@ -4308,29 +4371,29 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="G66" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="H66" s="5" t="s">
         <v>322</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>323</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N66" s="3"/>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="11">
         <v>66</v>
       </c>
@@ -4373,7 +4436,7 @@
       </c>
       <c r="N67" s="3"/>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="11">
         <v>67</v>
       </c>
@@ -4385,10 +4448,10 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F68" s="9">
         <v>9.02</v>
@@ -4416,7 +4479,7 @@
       </c>
       <c r="N68" s="3"/>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="11">
         <v>68</v>
       </c>
@@ -4428,10 +4491,10 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F69" s="9">
         <v>9.01</v>
@@ -4459,7 +4522,7 @@
       </c>
       <c r="N69" s="3"/>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="11">
         <v>59</v>
       </c>
@@ -4502,7 +4565,7 @@
       </c>
       <c r="N70" s="3"/>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="13">
         <f>SUBTOTAL(2,A2:A70)</f>
         <v>69</v>
@@ -4513,36 +4576,36 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N70">
-    <sortState ref="A2:L56">
+  <autoFilter ref="A1:N70" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L56">
       <sortCondition ref="A1:A56"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J63" r:id="rId1"/>
-    <hyperlink ref="K63" r:id="rId2"/>
-    <hyperlink ref="L63" r:id="rId3"/>
-    <hyperlink ref="L4" r:id="rId4"/>
-    <hyperlink ref="K4" r:id="rId5"/>
-    <hyperlink ref="J4" r:id="rId6"/>
-    <hyperlink ref="M63" r:id="rId7"/>
-    <hyperlink ref="M4" r:id="rId8"/>
-    <hyperlink ref="N4" r:id="rId9"/>
-    <hyperlink ref="J7" r:id="rId10"/>
-    <hyperlink ref="K7" r:id="rId11"/>
-    <hyperlink ref="L7" r:id="rId12"/>
-    <hyperlink ref="M7" r:id="rId13"/>
-    <hyperlink ref="J68" r:id="rId14"/>
-    <hyperlink ref="J69" r:id="rId15"/>
-    <hyperlink ref="K69" r:id="rId16"/>
-    <hyperlink ref="L69" r:id="rId17"/>
-    <hyperlink ref="M69" r:id="rId18"/>
-    <hyperlink ref="J66" r:id="rId19"/>
-    <hyperlink ref="K66" r:id="rId20"/>
-    <hyperlink ref="L66" r:id="rId21"/>
-    <hyperlink ref="M66" r:id="rId22"/>
-    <hyperlink ref="N62" r:id="rId23"/>
+    <hyperlink ref="J63" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K63" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="L63" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="L4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="K4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="M63" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="M4" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="N4" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="K7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="L7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="M7" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J68" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="J69" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="K69" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="L69" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="M69" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="J66" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="K66" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="L66" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="M66" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="N62" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -4555,21 +4618,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="A2:G2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="24.7109375" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>280</v>
       </c>
@@ -4592,7 +4655,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>283</v>
       </c>
@@ -4609,21 +4672,21 @@
         <v>281</v>
       </c>
       <c r="F2" s="16">
-        <f ca="1">DATEVALUE(MID(Sciences!$H59,(FIND("طبعة @ ",Sciences!$H59)+7),10))</f>
-        <v>45075</v>
+        <f>DATEVALUE(MID(Sciences!$H59,(FIND("طبعة @ ",Sciences!$H59)+7),10))</f>
+        <v>45077</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>284</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="18" t="s">
         <v>302</v>
       </c>
@@ -4631,18 +4694,18 @@
         <v>302</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C6" s="18" t="s">
         <v>303</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G2"/>
+  <autoFilter ref="A1:G2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="B2" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>

--- a/i360db/0.9.7/i360db.xlsx
+++ b/i360db/0.9.7/i360db.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2a2251e49424f27c/275/My Files/My Programs/موسوعات إسلامية_عربية/_Sprints/AppGyver/_db/i360db/0.9.7/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_420803E4693B2FA964008974B3C89038CED5B20D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D2E958F-64F1-40DD-B8B2-99FDF402EBBB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sciences" sheetId="1" r:id="rId1"/>
@@ -22,25 +16,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Complements!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sciences!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="114210" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="328">
   <si>
     <t>AppleAppStore</t>
   </si>
@@ -1020,19 +1001,22 @@
     <t>https://tafsir.app/</t>
   </si>
   <si>
-    <t>طبعة @ 2023/05/31 م - 1444/11/11 هـ</t>
+    <t>https://ar.m.wikisource.org/wiki/الإبانة_عن_أصول_الديانة</t>
+  </si>
+  <si>
+    <t>طبعة @ 2023/06/05 م - 1444/11/16 هـ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1197,14 +1181,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1251,7 +1227,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1283,27 +1259,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1335,24 +1293,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1528,17 +1468,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
@@ -1548,7 +1488,7 @@
     <col min="10" max="14" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
@@ -1592,7 +1532,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1635,7 +1575,7 @@
       </c>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1678,7 +1618,7 @@
       </c>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1723,7 +1663,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1766,7 +1706,7 @@
       </c>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1809,7 +1749,7 @@
       </c>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1851,10 +1791,10 @@
         <v>311</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1897,7 +1837,7 @@
       </c>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1940,7 +1880,7 @@
       </c>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1983,7 +1923,7 @@
       </c>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -2026,7 +1966,7 @@
       </c>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -2069,7 +2009,7 @@
       </c>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -2112,7 +2052,7 @@
       </c>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -2155,7 +2095,7 @@
       </c>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -2198,7 +2138,7 @@
       </c>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -2241,7 +2181,7 @@
       </c>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -2284,7 +2224,7 @@
       </c>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -2327,7 +2267,7 @@
       </c>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -2370,7 +2310,7 @@
       </c>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -2413,7 +2353,7 @@
       </c>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -2456,7 +2396,7 @@
       </c>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -2499,7 +2439,7 @@
       </c>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -2542,7 +2482,7 @@
       </c>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -2585,7 +2525,7 @@
       </c>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -2628,7 +2568,7 @@
       </c>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -2671,7 +2611,7 @@
       </c>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -2714,7 +2654,7 @@
       </c>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -2757,7 +2697,7 @@
       </c>
       <c r="N28" s="3"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -2800,7 +2740,7 @@
       </c>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -2843,7 +2783,7 @@
       </c>
       <c r="N30" s="8"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -2886,7 +2826,7 @@
       </c>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -2929,7 +2869,7 @@
       </c>
       <c r="N32" s="8"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -2972,7 +2912,7 @@
       </c>
       <c r="N33" s="8"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -3015,7 +2955,7 @@
       </c>
       <c r="N34" s="8"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -3058,7 +2998,7 @@
       </c>
       <c r="N35" s="8"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -3101,7 +3041,7 @@
       </c>
       <c r="N36" s="8"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -3144,7 +3084,7 @@
       </c>
       <c r="N37" s="8"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -3187,7 +3127,7 @@
       </c>
       <c r="N38" s="8"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -3230,7 +3170,7 @@
       </c>
       <c r="N39" s="8"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -3273,7 +3213,7 @@
       </c>
       <c r="N40" s="8"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -3316,7 +3256,7 @@
       </c>
       <c r="N41" s="8"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -3359,7 +3299,7 @@
       </c>
       <c r="N42" s="8"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14">
       <c r="A43" s="11">
         <v>42</v>
       </c>
@@ -3402,7 +3342,7 @@
       </c>
       <c r="N43" s="8"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14">
       <c r="A44" s="11">
         <v>43</v>
       </c>
@@ -3445,7 +3385,7 @@
       </c>
       <c r="N44" s="8"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14">
       <c r="A45" s="11">
         <v>44</v>
       </c>
@@ -3488,7 +3428,7 @@
       </c>
       <c r="N45" s="8"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14">
       <c r="A46" s="11">
         <v>45</v>
       </c>
@@ -3531,7 +3471,7 @@
       </c>
       <c r="N46" s="8"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14">
       <c r="A47" s="11">
         <v>46</v>
       </c>
@@ -3574,7 +3514,7 @@
       </c>
       <c r="N47" s="8"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14">
       <c r="A48" s="11">
         <v>47</v>
       </c>
@@ -3617,7 +3557,7 @@
       </c>
       <c r="N48" s="8"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14">
       <c r="A49" s="11">
         <v>48</v>
       </c>
@@ -3660,7 +3600,7 @@
       </c>
       <c r="N49" s="8"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14">
       <c r="A50" s="11">
         <v>49</v>
       </c>
@@ -3703,7 +3643,7 @@
       </c>
       <c r="N50" s="3"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14">
       <c r="A51" s="11">
         <v>50</v>
       </c>
@@ -3746,7 +3686,7 @@
       </c>
       <c r="N51" s="3"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14">
       <c r="A52" s="11">
         <v>51</v>
       </c>
@@ -3789,7 +3729,7 @@
       </c>
       <c r="N52" s="3"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14">
       <c r="A53" s="11">
         <v>52</v>
       </c>
@@ -3832,7 +3772,7 @@
       </c>
       <c r="N53" s="3"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14">
       <c r="A54" s="11">
         <v>53</v>
       </c>
@@ -3873,9 +3813,11 @@
       <c r="M54" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="11">
         <v>54</v>
       </c>
@@ -3918,7 +3860,7 @@
       </c>
       <c r="N55" s="3"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14">
       <c r="A56" s="11">
         <v>55</v>
       </c>
@@ -3961,7 +3903,7 @@
       </c>
       <c r="N56" s="3"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14">
       <c r="A57" s="11">
         <v>56</v>
       </c>
@@ -4004,7 +3946,7 @@
       </c>
       <c r="N57" s="3"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14">
       <c r="A58" s="11">
         <v>57</v>
       </c>
@@ -4047,7 +3989,7 @@
       </c>
       <c r="N58" s="8"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14">
       <c r="A59" s="11">
         <v>58</v>
       </c>
@@ -4071,7 +4013,7 @@
         <v>296</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>228</v>
@@ -4090,7 +4032,7 @@
       </c>
       <c r="N59" s="3"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14">
       <c r="A60" s="11">
         <v>65</v>
       </c>
@@ -4133,7 +4075,7 @@
       </c>
       <c r="N60" s="3"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14">
       <c r="A61" s="11">
         <v>60</v>
       </c>
@@ -4176,7 +4118,7 @@
       </c>
       <c r="N61" s="3"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14">
       <c r="A62" s="11">
         <v>61</v>
       </c>
@@ -4221,7 +4163,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14">
       <c r="A63" s="11">
         <v>62</v>
       </c>
@@ -4264,7 +4206,7 @@
       </c>
       <c r="N63" s="3"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14">
       <c r="A64" s="11">
         <v>63</v>
       </c>
@@ -4307,7 +4249,7 @@
       </c>
       <c r="N64" s="3"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14">
       <c r="A65" s="11">
         <v>64</v>
       </c>
@@ -4350,7 +4292,7 @@
       </c>
       <c r="N65" s="3"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14">
       <c r="A66" s="11">
         <v>69</v>
       </c>
@@ -4393,7 +4335,7 @@
       </c>
       <c r="N66" s="3"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14">
       <c r="A67" s="11">
         <v>66</v>
       </c>
@@ -4436,7 +4378,7 @@
       </c>
       <c r="N67" s="3"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14">
       <c r="A68" s="11">
         <v>67</v>
       </c>
@@ -4479,7 +4421,7 @@
       </c>
       <c r="N68" s="3"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14">
       <c r="A69" s="11">
         <v>68</v>
       </c>
@@ -4522,7 +4464,7 @@
       </c>
       <c r="N69" s="3"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14">
       <c r="A70" s="11">
         <v>59</v>
       </c>
@@ -4565,7 +4507,7 @@
       </c>
       <c r="N70" s="3"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14">
       <c r="A71" s="13">
         <f>SUBTOTAL(2,A2:A70)</f>
         <v>69</v>
@@ -4576,40 +4518,41 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N70" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L56">
+  <autoFilter ref="A1:N70">
+    <sortState ref="A2:L56">
       <sortCondition ref="A1:A56"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J63" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K63" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="L63" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="L4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="K4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="J4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="M63" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="M4" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="N4" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="J7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="K7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="L7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="M7" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="J68" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="J69" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="K69" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="L69" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="M69" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="J66" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="K66" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="L66" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="M66" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="N62" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="J63" r:id="rId1"/>
+    <hyperlink ref="K63" r:id="rId2"/>
+    <hyperlink ref="L63" r:id="rId3"/>
+    <hyperlink ref="L4" r:id="rId4"/>
+    <hyperlink ref="K4" r:id="rId5"/>
+    <hyperlink ref="J4" r:id="rId6"/>
+    <hyperlink ref="M63" r:id="rId7"/>
+    <hyperlink ref="M4" r:id="rId8"/>
+    <hyperlink ref="N4" r:id="rId9"/>
+    <hyperlink ref="J7" r:id="rId10"/>
+    <hyperlink ref="K7" r:id="rId11"/>
+    <hyperlink ref="L7" r:id="rId12"/>
+    <hyperlink ref="M7" r:id="rId13"/>
+    <hyperlink ref="J68" r:id="rId14"/>
+    <hyperlink ref="J69" r:id="rId15"/>
+    <hyperlink ref="K69" r:id="rId16"/>
+    <hyperlink ref="L69" r:id="rId17"/>
+    <hyperlink ref="M69" r:id="rId18"/>
+    <hyperlink ref="J66" r:id="rId19"/>
+    <hyperlink ref="K66" r:id="rId20"/>
+    <hyperlink ref="L66" r:id="rId21"/>
+    <hyperlink ref="M66" r:id="rId22"/>
+    <hyperlink ref="N62" r:id="rId23"/>
+    <hyperlink ref="N7" r:id="rId24"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>
-  <pageSetup paperSize="8" scale="65" orientation="landscape" r:id="rId24"/>
+  <pageSetup paperSize="8" scale="55" orientation="landscape" r:id="rId25"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;F - &amp;A&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
@@ -4618,7 +4561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4626,13 +4569,13 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="5" width="24.7109375" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>280</v>
       </c>
@@ -4655,7 +4598,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>283</v>
       </c>
@@ -4672,21 +4615,21 @@
         <v>281</v>
       </c>
       <c r="F2" s="16">
-        <f>DATEVALUE(MID(Sciences!$H59,(FIND("طبعة @ ",Sciences!$H59)+7),10))</f>
-        <v>45077</v>
+        <f ca="1">DATEVALUE(MID(Sciences!$H59,(FIND("طبعة @ ",Sciences!$H59)+7),10))</f>
+        <v>45082</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="15" t="s">
         <v>284</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="B5" s="18" t="s">
         <v>302</v>
       </c>
@@ -4694,18 +4637,18 @@
         <v>302</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="C6" s="18" t="s">
         <v>303</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:G2"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId3"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>
